--- a/Task.xlsx
+++ b/Task.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
   <si>
     <t>Tasks Name</t>
   </si>
@@ -52,10 +52,54 @@
     <t>Lê Thanh Hiếu</t>
   </si>
   <si>
+    <t>Lê  Duy Phương</t>
+  </si>
+  <si>
     <t>Blog Post Page</t>
   </si>
   <si>
     <t>Contact Page</t>
+  </si>
+  <si>
+    <t>About Page</t>
+  </si>
+  <si>
+    <t>Lê Duy Phương</t>
+  </si>
+  <si>
+    <t>Services Page</t>
+  </si>
+  <si>
+    <t>Post Single Page</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">Link Youtube: </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://youtu.be/J-VkATrVsw8</t>
+    </r>
+  </si>
+  <si>
+    <t>Link Git Hub: https://github.com/Hiuhiphop/masterwork</t>
+  </si>
+  <si>
+    <r>
+      <rPr/>
+      <t xml:space="preserve">Link Vercal: </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://masterwork-one.vercel.app/index.html</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -66,7 +110,7 @@
     <numFmt numFmtId="164" formatCode="mm/dd"/>
     <numFmt numFmtId="165" formatCode="dd&quot;/&quot;mm"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -100,8 +144,17 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -138,12 +191,6 @@
         <bgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFAEABAB"/>
-        <bgColor rgb="FFAEABAB"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
     <border/>
@@ -165,7 +212,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="17">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -207,21 +254,11 @@
     <xf borderId="1" fillId="5" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="7" fontId="5" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="5" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="1" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,13 +534,13 @@
         <v>1.0</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J2" s="12"/>
     </row>
     <row r="3">
       <c r="A3" s="13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="14">
         <v>44696.0</v>
@@ -527,13 +564,13 @@
         <v>1.0</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J3" s="12"/>
     </row>
     <row r="4">
       <c r="A4" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="9">
         <v>44704.0</v>
@@ -557,95 +594,120 @@
         <v>1.0</v>
       </c>
       <c r="I4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="12"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="9">
+        <v>44687.0</v>
+      </c>
+      <c r="C5" s="9">
+        <v>44693.0</v>
+      </c>
+      <c r="D5" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="9">
+        <v>44710.0</v>
+      </c>
+      <c r="G5" s="9">
+        <v>44710.0</v>
+      </c>
+      <c r="H5" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="I5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="12"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="15"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="18"/>
       <c r="J5" s="12"/>
     </row>
     <row r="6">
-      <c r="A6" s="15"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="18"/>
+      <c r="A6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="14">
+        <v>44691.0</v>
+      </c>
+      <c r="C6" s="14">
+        <v>44700.0</v>
+      </c>
+      <c r="D6" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="9">
+        <v>44710.0</v>
+      </c>
+      <c r="G6" s="9">
+        <v>44710.0</v>
+      </c>
+      <c r="H6" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="J6" s="12"/>
     </row>
     <row r="7">
-      <c r="A7" s="15"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="18"/>
+      <c r="A7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="14">
+        <v>44701.0</v>
+      </c>
+      <c r="C7" s="9">
+        <v>44707.0</v>
+      </c>
+      <c r="D7" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="9">
+        <v>44710.0</v>
+      </c>
+      <c r="G7" s="9">
+        <v>44741.0</v>
+      </c>
+      <c r="H7" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="J7" s="12"/>
     </row>
     <row r="8">
-      <c r="A8" s="15"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="12"/>
+      <c r="A8" s="15" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="15"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="12"/>
+      <c r="A9" s="16" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="15"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="12"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="15"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="12"/>
+      <c r="A10" s="15" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="A8"/>
+    <hyperlink r:id="rId2" ref="A10"/>
+  </hyperlinks>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>